--- a/2022/iowa/shot_type_iowa.xlsx
+++ b/2022/iowa/shot_type_iowa.xlsx
@@ -19,8 +19,8 @@
     <sheet name="#2Taylor Mccabe" sheetId="10" r:id="rId10"/>
     <sheet name="#3Sydney Affolter" sheetId="11" r:id="rId11"/>
     <sheet name="#40Sharon Goodman" sheetId="12" r:id="rId12"/>
-    <sheet name="#13Shateah Wetering" sheetId="13" r:id="rId13"/>
-    <sheet name="#34Aj Ediger" sheetId="14" r:id="rId14"/>
+    <sheet name="#34Aj Ediger" sheetId="13" r:id="rId13"/>
+    <sheet name="#13Shateah Wetering" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -107,12 +107,12 @@
     <t>#40Sharon Goodman</t>
   </si>
   <si>
+    <t>#34Aj Ediger</t>
+  </si>
+  <si>
     <t>#13Shateah Wetering</t>
   </si>
   <si>
-    <t>#34Aj Ediger</t>
-  </si>
-  <si>
     <t>Jump Shot</t>
   </si>
   <si>
@@ -332,12 +332,12 @@
     <t>0.0%</t>
   </si>
   <si>
+    <t>0.3%</t>
+  </si>
+  <si>
     <t>0.8%</t>
   </si>
   <si>
-    <t>0.3%</t>
-  </si>
-  <si>
     <t>4.2%</t>
   </si>
   <si>
@@ -509,10 +509,10 @@
     <t>1.286</t>
   </si>
   <si>
+    <t>1.667</t>
+  </si>
+  <si>
     <t>2.000</t>
-  </si>
-  <si>
-    <t>1.667</t>
   </si>
   <si>
     <t>1.005</t>
@@ -1886,10 +1886,10 @@
         <v>0.4</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1.667</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1898,25 +1898,25 @@
         <v>66.7</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>66.7</v>
       </c>
       <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>66.7</v>
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1930,10 +1930,10 @@
         <v>0.4</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>1.667</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1942,25 +1942,25 @@
         <v>66.7</v>
       </c>
       <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
         <v>66.7</v>
-      </c>
-      <c r="I15">
-        <v>33.3</v>
-      </c>
-      <c r="J15">
-        <v>33.3</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>66.7</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2491,92 +2491,92 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>66.7</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>59</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1">
+        <v>76</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" t="s">
-        <v>59</v>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>66.7</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" t="s">
-        <v>172</v>
+        <v>172</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>66.7</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3728,37 +3728,37 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L56" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="M56" t="s">
         <v>58</v>
@@ -3772,37 +3772,37 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="J57" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L57" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s">
         <v>58</v>
@@ -4339,89 +4339,89 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>26</v>
       </c>
-      <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" t="s">
-        <v>164</v>
-      </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" t="s">
-        <v>172</v>
-      </c>
-      <c r="H70" t="s">
-        <v>172</v>
-      </c>
-      <c r="I70" t="s">
-        <v>76</v>
-      </c>
-      <c r="J70" t="s">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" t="s">
-        <v>172</v>
-      </c>
-      <c r="M70" t="s">
-        <v>58</v>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>0.8</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>66.7</v>
+      </c>
+      <c r="J70">
+        <v>66.7</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
       </c>
       <c r="N70" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" hidden="1">
       <c r="A71" t="s">
         <v>27</v>
       </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>0.8</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>66.7</v>
-      </c>
-      <c r="J71">
-        <v>66.7</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" t="s">
+        <v>172</v>
+      </c>
+      <c r="M71" t="s">
+        <v>58</v>
       </c>
       <c r="N71" t="s">
         <v>172</v>
@@ -5764,10 +5764,10 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1.667</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -5776,81 +5776,81 @@
         <v>66.7</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="L2">
         <v>66.7</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>66.7</v>
       </c>
       <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1">
       <c r="A3" t="s">
         <v>288</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>66.7</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>66.7</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>66.7</v>
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1">
@@ -5908,43 +5908,43 @@
         <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
         <v>58</v>
@@ -5953,51 +5953,51 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>291</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>66.7</v>
+      </c>
+      <c r="K6">
+        <v>66.7</v>
+      </c>
+      <c r="L6">
+        <v>66.7</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6" t="s">
         <v>172</v>
@@ -6125,10 +6125,10 @@
         <v>0.4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>1.667</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -6137,81 +6137,81 @@
         <v>66.7</v>
       </c>
       <c r="H2">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>66.7</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>66.7</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>288</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>66.7</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>66.7</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>172</v>
+        <v>172</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>66.7</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1">
@@ -6269,43 +6269,43 @@
         <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="O5" t="s">
         <v>58</v>
@@ -6314,51 +6314,51 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6" t="s">
         <v>291</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>66.7</v>
-      </c>
-      <c r="K6">
-        <v>66.7</v>
-      </c>
-      <c r="L6">
-        <v>66.7</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
       </c>
       <c r="P6" t="s">
         <v>172</v>
